--- a/src/excel/SpanishEnglish-SUSTANTIVES1.xlsx
+++ b/src/excel/SpanishEnglish-SUSTANTIVES1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\NetBeansProjects\Produccion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B985040-8C6C-4ED6-AB84-ED9EA5650E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11B12AC-79CA-4379-9378-CE1A622BFEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
@@ -264,18 +264,12 @@
     <t>blackaut</t>
   </si>
   <si>
-    <t>short ey'es</t>
-  </si>
-  <si>
     <t>onr'est</t>
   </si>
   <si>
     <t>breikfru</t>
   </si>
   <si>
-    <t>inshores</t>
-  </si>
-  <si>
     <t>eksp'enses</t>
   </si>
   <si>
@@ -313,6 +307,12 @@
   </si>
   <si>
     <t>mains</t>
+  </si>
+  <si>
+    <t>inshorens</t>
+  </si>
+  <si>
+    <t>short eish</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
